--- a/result.xlsx
+++ b/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>订单Id</t>
   </si>
@@ -62,7 +62,7 @@
     <t>总成本（元）</t>
   </si>
   <si>
-    <t>状态state</t>
+    <t>状态</t>
   </si>
   <si>
     <t>任务次序</t>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>状态</t>
   </si>
   <si>
     <t>货是否在车上</t>
@@ -512,16 +509,16 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -540,19 +537,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsy\Documents\Models\GIS-Combined-Transportation-V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D7ED2775-6389-4BA8-B1F6-9672FB8C11C1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ED2775-6389-4BA8-B1F6-9672FB8C11C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Order" r:id="rId1" sheetId="1"/>
-    <sheet name="Task" r:id="rId2" sheetId="2"/>
-    <sheet name="Truck" r:id="rId3" sheetId="3"/>
+    <sheet name="Order" sheetId="1" r:id="rId1"/>
+    <sheet name="Task" sheetId="2" r:id="rId2"/>
+    <sheet name="Truck" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,82 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
-  <si>
-    <t>订单Id</t>
-  </si>
-  <si>
-    <t>顾客Id</t>
-  </si>
-  <si>
-    <t>区</t>
-  </si>
-  <si>
-    <t>街道</t>
-  </si>
-  <si>
-    <t>经度</t>
-  </si>
-  <si>
-    <t>纬度</t>
-  </si>
-  <si>
-    <t>相对距离（米）</t>
-  </si>
-  <si>
-    <t>累计行驶里程（米）</t>
-  </si>
-  <si>
-    <t>订单开始时间</t>
-  </si>
-  <si>
-    <t>累计耗时（分钟）</t>
-  </si>
-  <si>
-    <t>总成本（元）</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>任务次序</t>
-  </si>
-  <si>
-    <t>当前车Id</t>
-  </si>
-  <si>
-    <t>交接车的Id</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>货是否在车上</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>货车Id</t>
-  </si>
-  <si>
-    <t>累计等待时间（分钟）</t>
-  </si>
-  <si>
-    <t>累计工作时间（分钟）</t>
-  </si>
-  <si>
-    <t>空载等待成本（元）</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,16 +66,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,10 +92,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -201,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -236,7 +165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -330,21 +259,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -361,7 +290,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -413,148 +342,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="360" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="360"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAA1F7-738B-4CC4-A2BB-826F6101D150}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAA1F7-738B-4CC4-A2BB-826F6101D150}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388ED130-FFB6-4C2C-A830-82EFFA611133}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388ED130-FFB6-4C2C-A830-82EFFA611133}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="360" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="360"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>